--- a/biology/Zoologie/Hynobius_maoershanensis/Hynobius_maoershanensis.xlsx
+++ b/biology/Zoologie/Hynobius_maoershanensis/Hynobius_maoershanensis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Hynobius maoershanensis est une espèce d'urodèles de la famille des Hynobiidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Hynobius maoershanensis est une espèce d'urodèles de la famille des Hynobiidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique du Guangxi en République populaire de Chine. Elle se rencontre dans le xian de Xing'an dans la préfecture de Guilin à 2 015 m d'altitude sur le mont Maoer[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique du Guangxi en République populaire de Chine. Elle se rencontre dans le xian de Xing'an dans la préfecture de Guilin à 2 015 m d'altitude sur le mont Maoer.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les mâles mesurent de 81,9 à 91 mm sans la queue et de 152,3 à 160,2 mm de longueur totale{ et les femelles de 76,5 à 83,6 mm sans la queue et de 136,1 à 155,2 mm de longueur totale[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les mâles mesurent de 81,9 à 91 mm sans la queue et de 152,3 à 160,2 mm de longueur totale{ et les femelles de 76,5 à 83,6 mm sans la queue et de 136,1 à 155,2 mm de longueur totale.
 </t>
         </is>
       </c>
@@ -573,7 +589,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Son nom d'espèce, composé de maoershan et du suffixe latin -ensis, « qui vit dans, qui habite », lui a été donné en référence au lieu de sa découverte, le mont Maoer (Maoershan).
 </t>
@@ -604,7 +622,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Zhou, Jiang &amp; Jiang, 2006 : A new species of the genus Hynobius from Guangxi Zhuang Autonomous Region, China (Caudata, Hynobiidae). Acta Zootaxonomica Sinica, vol. 31, p. 670-674.</t>
         </is>
